--- a/src/inputFiles/1111 новый.xlsx
+++ b/src/inputFiles/1111 новый.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="374">
   <si>
     <t xml:space="preserve">г Тулун</t>
   </si>
@@ -832,13 +832,132 @@
     <t/>
   </si>
   <si>
+    <t>38:30:011801:1191</t>
+  </si>
+  <si>
+    <t>109.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Жилой дом</t>
+  </si>
+  <si>
+    <t>38:30:011801:1169</t>
+  </si>
+  <si>
+    <t>166.20</t>
+  </si>
+  <si>
+    <t>Жилой дом</t>
+  </si>
+  <si>
+    <t>38:30:011801:1168</t>
+  </si>
+  <si>
+    <t>156.50</t>
+  </si>
+  <si>
+    <t>38:30:011801:1649</t>
+  </si>
+  <si>
+    <t>147.60</t>
+  </si>
+  <si>
+    <t>38:30:011701:474</t>
+  </si>
+  <si>
+    <t>46.60</t>
+  </si>
+  <si>
+    <t>38:30:012101:929</t>
+  </si>
+  <si>
+    <t>26.50</t>
+  </si>
+  <si>
+    <t>38:30:012101:672</t>
+  </si>
+  <si>
+    <t>48.70</t>
+  </si>
+  <si>
+    <t>Индивидуальный жилой дом</t>
+  </si>
+  <si>
+    <t>38:30:012101:718</t>
+  </si>
+  <si>
+    <t>27.50</t>
+  </si>
+  <si>
+    <t>38:30:012101:719</t>
+  </si>
+  <si>
+    <t>42.90</t>
+  </si>
+  <si>
+    <t>38:30:011205:749</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
     <t>38:30:010502:316</t>
   </si>
   <si>
     <t>95.60</t>
   </si>
   <si>
-    <t>Жилой дом</t>
+    <t>38:30:010502:298</t>
+  </si>
+  <si>
+    <t>48.10</t>
+  </si>
+  <si>
+    <t>38:30:010502:296</t>
+  </si>
+  <si>
+    <t>30.90</t>
+  </si>
+  <si>
+    <t>38:30:011002:624</t>
+  </si>
+  <si>
+    <t>59.30</t>
+  </si>
+  <si>
+    <t>38:30:011002:622</t>
+  </si>
+  <si>
+    <t>65.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Индивидуальный жилой дом</t>
+  </si>
+  <si>
+    <t>38:30:011002:610</t>
+  </si>
+  <si>
+    <t>33.40</t>
+  </si>
+  <si>
+    <t>38:30:010403:394</t>
+  </si>
+  <si>
+    <t>61.00</t>
+  </si>
+  <si>
+    <t>38:30:010402:489</t>
+  </si>
+  <si>
+    <t>31.80</t>
+  </si>
+  <si>
+    <t>38:30:010502:379</t>
+  </si>
+  <si>
+    <t>33.60</t>
   </si>
   <si>
     <t>38:30:010502:377</t>
@@ -847,19 +966,178 @@
     <t>132.90</t>
   </si>
   <si>
+    <t>38:30:010502:380</t>
+  </si>
+  <si>
+    <t>30.10</t>
+  </si>
+  <si>
+    <t>38:30:010402:490</t>
+  </si>
+  <si>
+    <t>37.80</t>
+  </si>
+  <si>
+    <t>38:30:010502:378</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
     <t>38:30:010502:282</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
+    <t>38:30:010402:488</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>38:30:010402:486</t>
+  </si>
+  <si>
+    <t>31.20</t>
+  </si>
+  <si>
+    <t>38:30:010402:487</t>
+  </si>
+  <si>
+    <t>51.20</t>
+  </si>
+  <si>
+    <t>38:30:010402:361</t>
+  </si>
+  <si>
+    <t>38.50</t>
+  </si>
+  <si>
     <t>38:30:011201:1049</t>
   </si>
   <si>
+    <t>38:30:011402:726</t>
+  </si>
+  <si>
+    <t>45.70</t>
+  </si>
+  <si>
+    <t>38:30:011402:711</t>
+  </si>
+  <si>
+    <t>46.90</t>
+  </si>
+  <si>
     <t>38:30:011402:762</t>
   </si>
   <si>
     <t>24.70</t>
+  </si>
+  <si>
+    <t>38:30:010506:735</t>
+  </si>
+  <si>
+    <t>47.30</t>
+  </si>
+  <si>
+    <t>38:30:010506:733</t>
+  </si>
+  <si>
+    <t>55.10</t>
+  </si>
+  <si>
+    <t>38:30:010404:312</t>
+  </si>
+  <si>
+    <t>130.80</t>
+  </si>
+  <si>
+    <t>38:30:010404:319</t>
+  </si>
+  <si>
+    <t>64.30</t>
+  </si>
+  <si>
+    <t>38:30:010404:310</t>
+  </si>
+  <si>
+    <t>55.80</t>
+  </si>
+  <si>
+    <t>38:30:010404:317</t>
+  </si>
+  <si>
+    <t>33.70</t>
+  </si>
+  <si>
+    <t>38:30:010504:306</t>
+  </si>
+  <si>
+    <t>38:30:010504:312</t>
+  </si>
+  <si>
+    <t>38:30:010504:307</t>
+  </si>
+  <si>
+    <t>44.80</t>
+  </si>
+  <si>
+    <t>38:30:010504:293</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>38:30:010504:308</t>
+  </si>
+  <si>
+    <t>43.90</t>
+  </si>
+  <si>
+    <t>38:30:010404:311</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>38:30:010504:313</t>
+  </si>
+  <si>
+    <t>64.70</t>
+  </si>
+  <si>
+    <t>38:30:010504:309</t>
+  </si>
+  <si>
+    <t>60.30</t>
+  </si>
+  <si>
+    <t>38:30:010504:315</t>
+  </si>
+  <si>
+    <t>53.60</t>
+  </si>
+  <si>
+    <t>38:30:010504:310</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>38:30:010504:351</t>
+  </si>
+  <si>
+    <t>62.30</t>
+  </si>
+  <si>
+    <t>Бревенчатый одноэтажный  жилой дом,  состоящий из 4- комнат</t>
+  </si>
+  <si>
+    <t>38:30:010404:316</t>
+  </si>
+  <si>
+    <t>18.40</t>
   </si>
   <si>
     <t>38:30:010802:187</t>
@@ -1002,6 +1280,15 @@
       <c r="M1" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="O1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>272</v>
+      </c>
       <c r="S1" s="0" t="s">
         <v>9</v>
       </c>
@@ -1037,6 +1324,15 @@
       <c r="M2" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="O2" t="s">
+        <v>273</v>
+      </c>
+      <c r="P2" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>275</v>
+      </c>
       <c r="S2" s="0" t="s">
         <v>14</v>
       </c>
@@ -1072,6 +1368,15 @@
       <c r="M3" s="0" t="s">
         <v>18</v>
       </c>
+      <c r="O3" t="s">
+        <v>276</v>
+      </c>
+      <c r="P3" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>275</v>
+      </c>
       <c r="S3" s="0" t="s">
         <v>19</v>
       </c>
@@ -1107,6 +1412,15 @@
       <c r="M4" s="0" t="s">
         <v>23</v>
       </c>
+      <c r="O4" t="s">
+        <v>278</v>
+      </c>
+      <c r="P4" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>275</v>
+      </c>
       <c r="S4" s="0" t="s">
         <v>24</v>
       </c>
@@ -1142,6 +1456,15 @@
       <c r="M5" s="0" t="s">
         <v>28</v>
       </c>
+      <c r="O5" t="s">
+        <v>280</v>
+      </c>
+      <c r="P5" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>275</v>
+      </c>
       <c r="S5" s="0" t="s">
         <v>29</v>
       </c>
@@ -1177,6 +1500,15 @@
       <c r="M6" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="O6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P6" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>275</v>
+      </c>
       <c r="S6" s="0" t="s">
         <v>34</v>
       </c>
@@ -1212,6 +1544,15 @@
       <c r="M7" s="0" t="s">
         <v>38</v>
       </c>
+      <c r="O7" t="s">
+        <v>284</v>
+      </c>
+      <c r="P7" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>286</v>
+      </c>
       <c r="S7" s="0" t="s">
         <v>39</v>
       </c>
@@ -1247,6 +1588,15 @@
       <c r="M8" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="O8" t="s">
+        <v>287</v>
+      </c>
+      <c r="P8" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>275</v>
+      </c>
       <c r="S8" s="0" t="s">
         <v>43</v>
       </c>
@@ -1282,6 +1632,15 @@
       <c r="M9" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="O9" t="s">
+        <v>289</v>
+      </c>
+      <c r="P9" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>275</v>
+      </c>
       <c r="S9" s="0" t="s">
         <v>47</v>
       </c>
@@ -1317,6 +1676,15 @@
       <c r="M10" s="0" t="s">
         <v>52</v>
       </c>
+      <c r="O10" t="s">
+        <v>291</v>
+      </c>
+      <c r="P10" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>275</v>
+      </c>
       <c r="S10" s="0" t="s">
         <v>53</v>
       </c>
@@ -1353,13 +1721,13 @@
         <v>57</v>
       </c>
       <c r="O11" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="P11" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="Q11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S11" s="0" t="s">
         <v>58</v>
@@ -1396,6 +1764,15 @@
       <c r="M12" s="0" t="s">
         <v>61</v>
       </c>
+      <c r="O12" t="s">
+        <v>295</v>
+      </c>
+      <c r="P12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>275</v>
+      </c>
       <c r="S12" s="0" t="s">
         <v>62</v>
       </c>
@@ -1431,6 +1808,15 @@
       <c r="M13" s="0" t="s">
         <v>66</v>
       </c>
+      <c r="O13" t="s">
+        <v>297</v>
+      </c>
+      <c r="P13" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>275</v>
+      </c>
       <c r="S13" s="0" t="s">
         <v>67</v>
       </c>
@@ -1466,6 +1852,15 @@
       <c r="M14" s="0" t="s">
         <v>71</v>
       </c>
+      <c r="O14" t="s">
+        <v>299</v>
+      </c>
+      <c r="P14" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>286</v>
+      </c>
       <c r="S14" s="0" t="s">
         <v>72</v>
       </c>
@@ -1510,6 +1905,15 @@
       <c r="M15" s="0" t="s">
         <v>78</v>
       </c>
+      <c r="O15" t="s">
+        <v>301</v>
+      </c>
+      <c r="P15" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>303</v>
+      </c>
       <c r="S15" s="0" t="s">
         <v>79</v>
       </c>
@@ -1545,6 +1949,15 @@
       <c r="M16" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="O16" t="s">
+        <v>304</v>
+      </c>
+      <c r="P16" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>275</v>
+      </c>
       <c r="S16" s="0" t="s">
         <v>83</v>
       </c>
@@ -1612,6 +2025,15 @@
       <c r="M18" s="0" t="s">
         <v>91</v>
       </c>
+      <c r="O18" t="s">
+        <v>306</v>
+      </c>
+      <c r="P18" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>275</v>
+      </c>
       <c r="S18" s="0" t="s">
         <v>92</v>
       </c>
@@ -1647,6 +2069,15 @@
       <c r="M19" s="0" t="s">
         <v>96</v>
       </c>
+      <c r="O19" t="s">
+        <v>308</v>
+      </c>
+      <c r="P19" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>275</v>
+      </c>
       <c r="S19" s="0" t="s">
         <v>97</v>
       </c>
@@ -1682,6 +2113,15 @@
       <c r="M20" s="0" t="s">
         <v>101</v>
       </c>
+      <c r="O20" t="s">
+        <v>310</v>
+      </c>
+      <c r="P20" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>275</v>
+      </c>
       <c r="S20" s="0" t="s">
         <v>102</v>
       </c>
@@ -1718,13 +2158,13 @@
         <v>106</v>
       </c>
       <c r="O21" t="s">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="P21" t="s">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="Q21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S21" s="0" t="s">
         <v>107</v>
@@ -1761,6 +2201,15 @@
       <c r="M22" s="0" t="s">
         <v>111</v>
       </c>
+      <c r="O22" t="s">
+        <v>314</v>
+      </c>
+      <c r="P22" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>275</v>
+      </c>
       <c r="S22" s="0" t="s">
         <v>112</v>
       </c>
@@ -1796,6 +2245,15 @@
       <c r="M23" s="0" t="s">
         <v>115</v>
       </c>
+      <c r="O23" t="s">
+        <v>316</v>
+      </c>
+      <c r="P23" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>275</v>
+      </c>
       <c r="S23" s="0" t="s">
         <v>116</v>
       </c>
@@ -1831,6 +2289,15 @@
       <c r="M24" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="O24" t="s">
+        <v>316</v>
+      </c>
+      <c r="P24" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>275</v>
+      </c>
       <c r="S24" s="0" t="s">
         <v>116</v>
       </c>
@@ -1866,6 +2333,15 @@
       <c r="M25" s="0" t="s">
         <v>122</v>
       </c>
+      <c r="O25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P25" t="s">
+        <v>319</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>275</v>
+      </c>
       <c r="S25" s="0" t="s">
         <v>123</v>
       </c>
@@ -1902,13 +2378,13 @@
         <v>127</v>
       </c>
       <c r="O26" t="s">
+        <v>320</v>
+      </c>
+      <c r="P26" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q26" t="s">
         <v>275</v>
-      </c>
-      <c r="P26" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>272</v>
       </c>
       <c r="S26" s="0" t="s">
         <v>128</v>
@@ -1945,6 +2421,15 @@
       <c r="M27" s="0" t="s">
         <v>131</v>
       </c>
+      <c r="O27" t="s">
+        <v>322</v>
+      </c>
+      <c r="P27" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>275</v>
+      </c>
       <c r="S27" s="0" t="s">
         <v>132</v>
       </c>
@@ -1980,6 +2465,15 @@
       <c r="M28" s="0" t="s">
         <v>135</v>
       </c>
+      <c r="O28" t="s">
+        <v>324</v>
+      </c>
+      <c r="P28" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>275</v>
+      </c>
       <c r="S28" s="0" t="s">
         <v>136</v>
       </c>
@@ -2015,6 +2509,15 @@
       <c r="M29" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="O29" t="s">
+        <v>326</v>
+      </c>
+      <c r="P29" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>275</v>
+      </c>
       <c r="S29" s="0" t="s">
         <v>141</v>
       </c>
@@ -2050,6 +2553,15 @@
       <c r="M30" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="O30" t="s">
+        <v>328</v>
+      </c>
+      <c r="P30" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>275</v>
+      </c>
       <c r="S30" s="0" t="s">
         <v>146</v>
       </c>
@@ -2086,7 +2598,7 @@
         <v>150</v>
       </c>
       <c r="O31" t="s">
-        <v>277</v>
+        <v>330</v>
       </c>
       <c r="P31"/>
       <c r="Q31"/>
@@ -2122,6 +2634,15 @@
       <c r="M32" s="0" t="s">
         <v>154</v>
       </c>
+      <c r="O32" t="s">
+        <v>331</v>
+      </c>
+      <c r="P32" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>275</v>
+      </c>
       <c r="S32" s="0" t="s">
         <v>155</v>
       </c>
@@ -2157,6 +2678,15 @@
       <c r="M33" s="0" t="s">
         <v>158</v>
       </c>
+      <c r="O33" t="s">
+        <v>333</v>
+      </c>
+      <c r="P33" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>275</v>
+      </c>
       <c r="S33" s="0" t="s">
         <v>159</v>
       </c>
@@ -2193,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="O34" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="P34" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="Q34" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S34" s="0" t="s">
         <v>163</v>
@@ -2236,6 +2766,15 @@
       <c r="M35" s="0" t="s">
         <v>167</v>
       </c>
+      <c r="O35" t="s">
+        <v>337</v>
+      </c>
+      <c r="P35" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>275</v>
+      </c>
       <c r="S35" s="0" t="s">
         <v>168</v>
       </c>
@@ -2271,6 +2810,15 @@
       <c r="M36" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="O36" t="s">
+        <v>339</v>
+      </c>
+      <c r="P36" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>275</v>
+      </c>
       <c r="S36" s="0" t="s">
         <v>172</v>
       </c>
@@ -2306,6 +2854,15 @@
       <c r="M37" s="0" t="s">
         <v>176</v>
       </c>
+      <c r="O37" t="s">
+        <v>341</v>
+      </c>
+      <c r="P37" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>275</v>
+      </c>
       <c r="S37" s="0" t="s">
         <v>177</v>
       </c>
@@ -2341,6 +2898,15 @@
       <c r="M38" s="0" t="s">
         <v>180</v>
       </c>
+      <c r="O38" t="s">
+        <v>343</v>
+      </c>
+      <c r="P38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>275</v>
+      </c>
       <c r="S38" s="0" t="s">
         <v>181</v>
       </c>
@@ -2376,6 +2942,15 @@
       <c r="M39" s="0" t="s">
         <v>185</v>
       </c>
+      <c r="O39" t="s">
+        <v>345</v>
+      </c>
+      <c r="P39" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>275</v>
+      </c>
       <c r="S39" s="0" t="s">
         <v>186</v>
       </c>
@@ -2411,6 +2986,15 @@
       <c r="M40" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="O40" t="s">
+        <v>347</v>
+      </c>
+      <c r="P40" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>275</v>
+      </c>
       <c r="S40" s="0" t="s">
         <v>190</v>
       </c>
@@ -2446,6 +3030,15 @@
       <c r="M41" s="0" t="s">
         <v>42</v>
       </c>
+      <c r="O41" t="s">
+        <v>349</v>
+      </c>
+      <c r="P41" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>275</v>
+      </c>
       <c r="S41" s="0" t="s">
         <v>194</v>
       </c>
@@ -2481,6 +3074,15 @@
       <c r="M42" s="0" t="s">
         <v>145</v>
       </c>
+      <c r="O42" t="s">
+        <v>350</v>
+      </c>
+      <c r="P42" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>275</v>
+      </c>
       <c r="S42" s="0" t="s">
         <v>197</v>
       </c>
@@ -2516,6 +3118,15 @@
       <c r="M43" s="0" t="s">
         <v>200</v>
       </c>
+      <c r="O43" t="s">
+        <v>351</v>
+      </c>
+      <c r="P43" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>275</v>
+      </c>
       <c r="S43" s="0" t="s">
         <v>201</v>
       </c>
@@ -2586,6 +3197,15 @@
       <c r="M45" s="0" t="s">
         <v>210</v>
       </c>
+      <c r="O45" t="s">
+        <v>353</v>
+      </c>
+      <c r="P45" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>275</v>
+      </c>
       <c r="S45" s="0" t="s">
         <v>211</v>
       </c>
@@ -2621,6 +3241,15 @@
       <c r="M46" s="0" t="s">
         <v>215</v>
       </c>
+      <c r="O46" t="s">
+        <v>355</v>
+      </c>
+      <c r="P46" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>275</v>
+      </c>
       <c r="S46" s="0" t="s">
         <v>216</v>
       </c>
@@ -2656,6 +3285,15 @@
       <c r="M47" s="0" t="s">
         <v>219</v>
       </c>
+      <c r="O47" t="s">
+        <v>357</v>
+      </c>
+      <c r="P47" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>275</v>
+      </c>
       <c r="S47" s="0" t="s">
         <v>220</v>
       </c>
@@ -2691,6 +3329,15 @@
       <c r="M48" s="0" t="s">
         <v>224</v>
       </c>
+      <c r="O48" t="s">
+        <v>359</v>
+      </c>
+      <c r="P48" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>275</v>
+      </c>
       <c r="S48" s="0" t="s">
         <v>225</v>
       </c>
@@ -2796,6 +3443,15 @@
       <c r="M51" s="0" t="s">
         <v>239</v>
       </c>
+      <c r="O51" t="s">
+        <v>361</v>
+      </c>
+      <c r="P51" t="s">
+        <v>362</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>275</v>
+      </c>
       <c r="S51" s="0" t="s">
         <v>240</v>
       </c>
@@ -2831,6 +3487,15 @@
       <c r="M52" s="0" t="s">
         <v>244</v>
       </c>
+      <c r="O52" t="s">
+        <v>363</v>
+      </c>
+      <c r="P52" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>275</v>
+      </c>
       <c r="S52" s="0" t="s">
         <v>245</v>
       </c>
@@ -2866,6 +3531,15 @@
       <c r="M53" s="0" t="s">
         <v>249</v>
       </c>
+      <c r="O53" t="s">
+        <v>365</v>
+      </c>
+      <c r="P53" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>275</v>
+      </c>
       <c r="S53" s="0" t="s">
         <v>250</v>
       </c>
@@ -2936,6 +3610,15 @@
       <c r="M55" s="0" t="s">
         <v>258</v>
       </c>
+      <c r="O55" t="s">
+        <v>367</v>
+      </c>
+      <c r="P55" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>369</v>
+      </c>
       <c r="S55" s="0" t="s">
         <v>259</v>
       </c>
@@ -2971,6 +3654,15 @@
       <c r="M56" s="0" t="s">
         <v>262</v>
       </c>
+      <c r="O56" t="s">
+        <v>370</v>
+      </c>
+      <c r="P56" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>275</v>
+      </c>
       <c r="S56" s="0" t="s">
         <v>263</v>
       </c>
@@ -3007,13 +3699,13 @@
         <v>267</v>
       </c>
       <c r="O57" t="s">
-        <v>280</v>
+        <v>372</v>
       </c>
       <c r="P57" t="s">
-        <v>281</v>
+        <v>373</v>
       </c>
       <c r="Q57" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="S57" s="0" t="s">
         <v>268</v>

--- a/src/inputFiles/1111 новый.xlsx
+++ b/src/inputFiles/1111 новый.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="269">
   <si>
     <t xml:space="preserve">г Тулун</t>
   </si>
@@ -827,323 +827,6 @@
   </si>
   <si>
     <t xml:space="preserve">38:30:010802:275</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>38:30:011801:1191</t>
-  </si>
-  <si>
-    <t>109.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Жилой дом</t>
-  </si>
-  <si>
-    <t>38:30:011801:1169</t>
-  </si>
-  <si>
-    <t>166.20</t>
-  </si>
-  <si>
-    <t>Жилой дом</t>
-  </si>
-  <si>
-    <t>38:30:011801:1168</t>
-  </si>
-  <si>
-    <t>156.50</t>
-  </si>
-  <si>
-    <t>38:30:011801:1649</t>
-  </si>
-  <si>
-    <t>147.60</t>
-  </si>
-  <si>
-    <t>38:30:011701:474</t>
-  </si>
-  <si>
-    <t>46.60</t>
-  </si>
-  <si>
-    <t>38:30:012101:929</t>
-  </si>
-  <si>
-    <t>26.50</t>
-  </si>
-  <si>
-    <t>38:30:012101:672</t>
-  </si>
-  <si>
-    <t>48.70</t>
-  </si>
-  <si>
-    <t>Индивидуальный жилой дом</t>
-  </si>
-  <si>
-    <t>38:30:012101:718</t>
-  </si>
-  <si>
-    <t>27.50</t>
-  </si>
-  <si>
-    <t>38:30:012101:719</t>
-  </si>
-  <si>
-    <t>42.90</t>
-  </si>
-  <si>
-    <t>38:30:011205:749</t>
-  </si>
-  <si>
-    <t>56.00</t>
-  </si>
-  <si>
-    <t>38:30:010502:316</t>
-  </si>
-  <si>
-    <t>95.60</t>
-  </si>
-  <si>
-    <t>38:30:010502:298</t>
-  </si>
-  <si>
-    <t>48.10</t>
-  </si>
-  <si>
-    <t>38:30:010502:296</t>
-  </si>
-  <si>
-    <t>30.90</t>
-  </si>
-  <si>
-    <t>38:30:011002:624</t>
-  </si>
-  <si>
-    <t>59.30</t>
-  </si>
-  <si>
-    <t>38:30:011002:622</t>
-  </si>
-  <si>
-    <t>65.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Индивидуальный жилой дом</t>
-  </si>
-  <si>
-    <t>38:30:011002:610</t>
-  </si>
-  <si>
-    <t>33.40</t>
-  </si>
-  <si>
-    <t>38:30:010403:394</t>
-  </si>
-  <si>
-    <t>61.00</t>
-  </si>
-  <si>
-    <t>38:30:010402:489</t>
-  </si>
-  <si>
-    <t>31.80</t>
-  </si>
-  <si>
-    <t>38:30:010502:379</t>
-  </si>
-  <si>
-    <t>33.60</t>
-  </si>
-  <si>
-    <t>38:30:010502:377</t>
-  </si>
-  <si>
-    <t>132.90</t>
-  </si>
-  <si>
-    <t>38:30:010502:380</t>
-  </si>
-  <si>
-    <t>30.10</t>
-  </si>
-  <si>
-    <t>38:30:010402:490</t>
-  </si>
-  <si>
-    <t>37.80</t>
-  </si>
-  <si>
-    <t>38:30:010502:378</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>38:30:010502:282</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>38:30:010402:488</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>38:30:010402:486</t>
-  </si>
-  <si>
-    <t>31.20</t>
-  </si>
-  <si>
-    <t>38:30:010402:487</t>
-  </si>
-  <si>
-    <t>51.20</t>
-  </si>
-  <si>
-    <t>38:30:010402:361</t>
-  </si>
-  <si>
-    <t>38.50</t>
-  </si>
-  <si>
-    <t>38:30:011201:1049</t>
-  </si>
-  <si>
-    <t>38:30:011402:726</t>
-  </si>
-  <si>
-    <t>45.70</t>
-  </si>
-  <si>
-    <t>38:30:011402:711</t>
-  </si>
-  <si>
-    <t>46.90</t>
-  </si>
-  <si>
-    <t>38:30:011402:762</t>
-  </si>
-  <si>
-    <t>24.70</t>
-  </si>
-  <si>
-    <t>38:30:010506:735</t>
-  </si>
-  <si>
-    <t>47.30</t>
-  </si>
-  <si>
-    <t>38:30:010506:733</t>
-  </si>
-  <si>
-    <t>55.10</t>
-  </si>
-  <si>
-    <t>38:30:010404:312</t>
-  </si>
-  <si>
-    <t>130.80</t>
-  </si>
-  <si>
-    <t>38:30:010404:319</t>
-  </si>
-  <si>
-    <t>64.30</t>
-  </si>
-  <si>
-    <t>38:30:010404:310</t>
-  </si>
-  <si>
-    <t>55.80</t>
-  </si>
-  <si>
-    <t>38:30:010404:317</t>
-  </si>
-  <si>
-    <t>33.70</t>
-  </si>
-  <si>
-    <t>38:30:010504:306</t>
-  </si>
-  <si>
-    <t>38:30:010504:312</t>
-  </si>
-  <si>
-    <t>38:30:010504:307</t>
-  </si>
-  <si>
-    <t>44.80</t>
-  </si>
-  <si>
-    <t>38:30:010504:293</t>
-  </si>
-  <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>38:30:010504:308</t>
-  </si>
-  <si>
-    <t>43.90</t>
-  </si>
-  <si>
-    <t>38:30:010404:311</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>38:30:010504:313</t>
-  </si>
-  <si>
-    <t>64.70</t>
-  </si>
-  <si>
-    <t>38:30:010504:309</t>
-  </si>
-  <si>
-    <t>60.30</t>
-  </si>
-  <si>
-    <t>38:30:010504:315</t>
-  </si>
-  <si>
-    <t>53.60</t>
-  </si>
-  <si>
-    <t>38:30:010504:310</t>
-  </si>
-  <si>
-    <t>35.00</t>
-  </si>
-  <si>
-    <t>38:30:010504:351</t>
-  </si>
-  <si>
-    <t>62.30</t>
-  </si>
-  <si>
-    <t>Бревенчатый одноэтажный  жилой дом,  состоящий из 4- комнат</t>
-  </si>
-  <si>
-    <t>38:30:010404:316</t>
-  </si>
-  <si>
-    <t>18.40</t>
-  </si>
-  <si>
-    <t>38:30:010802:187</t>
-  </si>
-  <si>
-    <t>38.90</t>
   </si>
 </sst>
 </file>
@@ -1280,15 +963,6 @@
       <c r="M1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="O1" t="s">
-        <v>270</v>
-      </c>
-      <c r="P1" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>272</v>
-      </c>
       <c r="S1" s="0" t="s">
         <v>9</v>
       </c>
@@ -1324,15 +998,6 @@
       <c r="M2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O2" t="s">
-        <v>273</v>
-      </c>
-      <c r="P2" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>275</v>
-      </c>
       <c r="S2" s="0" t="s">
         <v>14</v>
       </c>
@@ -1368,15 +1033,6 @@
       <c r="M3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
-        <v>276</v>
-      </c>
-      <c r="P3" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>275</v>
-      </c>
       <c r="S3" s="0" t="s">
         <v>19</v>
       </c>
@@ -1412,15 +1068,6 @@
       <c r="M4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="O4" t="s">
-        <v>278</v>
-      </c>
-      <c r="P4" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>275</v>
-      </c>
       <c r="S4" s="0" t="s">
         <v>24</v>
       </c>
@@ -1456,15 +1103,6 @@
       <c r="M5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="O5" t="s">
-        <v>280</v>
-      </c>
-      <c r="P5" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>275</v>
-      </c>
       <c r="S5" s="0" t="s">
         <v>29</v>
       </c>
@@ -1500,15 +1138,6 @@
       <c r="M6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="O6" t="s">
-        <v>282</v>
-      </c>
-      <c r="P6" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>275</v>
-      </c>
       <c r="S6" s="0" t="s">
         <v>34</v>
       </c>
@@ -1544,15 +1173,6 @@
       <c r="M7" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="O7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>286</v>
-      </c>
       <c r="S7" s="0" t="s">
         <v>39</v>
       </c>
@@ -1588,15 +1208,6 @@
       <c r="M8" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O8" t="s">
-        <v>287</v>
-      </c>
-      <c r="P8" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>275</v>
-      </c>
       <c r="S8" s="0" t="s">
         <v>43</v>
       </c>
@@ -1632,15 +1243,6 @@
       <c r="M9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="O9" t="s">
-        <v>289</v>
-      </c>
-      <c r="P9" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>275</v>
-      </c>
       <c r="S9" s="0" t="s">
         <v>47</v>
       </c>
@@ -1676,15 +1278,6 @@
       <c r="M10" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="O10" t="s">
-        <v>291</v>
-      </c>
-      <c r="P10" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>275</v>
-      </c>
       <c r="S10" s="0" t="s">
         <v>53</v>
       </c>
@@ -1720,15 +1313,6 @@
       <c r="M11" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="O11" t="s">
-        <v>293</v>
-      </c>
-      <c r="P11" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>275</v>
-      </c>
       <c r="S11" s="0" t="s">
         <v>58</v>
       </c>
@@ -1764,15 +1348,6 @@
       <c r="M12" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="O12" t="s">
-        <v>295</v>
-      </c>
-      <c r="P12" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>275</v>
-      </c>
       <c r="S12" s="0" t="s">
         <v>62</v>
       </c>
@@ -1808,15 +1383,6 @@
       <c r="M13" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="O13" t="s">
-        <v>297</v>
-      </c>
-      <c r="P13" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>275</v>
-      </c>
       <c r="S13" s="0" t="s">
         <v>67</v>
       </c>
@@ -1852,15 +1418,6 @@
       <c r="M14" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="O14" t="s">
-        <v>299</v>
-      </c>
-      <c r="P14" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>286</v>
-      </c>
       <c r="S14" s="0" t="s">
         <v>72</v>
       </c>
@@ -1905,15 +1462,6 @@
       <c r="M15" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="O15" t="s">
-        <v>301</v>
-      </c>
-      <c r="P15" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>303</v>
-      </c>
       <c r="S15" s="0" t="s">
         <v>79</v>
       </c>
@@ -1949,15 +1497,6 @@
       <c r="M16" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="O16" t="s">
-        <v>304</v>
-      </c>
-      <c r="P16" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>275</v>
-      </c>
       <c r="S16" s="0" t="s">
         <v>83</v>
       </c>
@@ -2025,15 +1564,6 @@
       <c r="M18" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="O18" t="s">
-        <v>306</v>
-      </c>
-      <c r="P18" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>275</v>
-      </c>
       <c r="S18" s="0" t="s">
         <v>92</v>
       </c>
@@ -2069,15 +1599,6 @@
       <c r="M19" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="O19" t="s">
-        <v>308</v>
-      </c>
-      <c r="P19" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>275</v>
-      </c>
       <c r="S19" s="0" t="s">
         <v>97</v>
       </c>
@@ -2113,15 +1634,6 @@
       <c r="M20" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="O20" t="s">
-        <v>310</v>
-      </c>
-      <c r="P20" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>275</v>
-      </c>
       <c r="S20" s="0" t="s">
         <v>102</v>
       </c>
@@ -2157,15 +1669,6 @@
       <c r="M21" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="O21" t="s">
-        <v>312</v>
-      </c>
-      <c r="P21" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>275</v>
-      </c>
       <c r="S21" s="0" t="s">
         <v>107</v>
       </c>
@@ -2201,15 +1704,6 @@
       <c r="M22" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="O22" t="s">
-        <v>314</v>
-      </c>
-      <c r="P22" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>275</v>
-      </c>
       <c r="S22" s="0" t="s">
         <v>112</v>
       </c>
@@ -2245,15 +1739,6 @@
       <c r="M23" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="O23" t="s">
-        <v>316</v>
-      </c>
-      <c r="P23" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>275</v>
-      </c>
       <c r="S23" s="0" t="s">
         <v>116</v>
       </c>
@@ -2289,15 +1774,6 @@
       <c r="M24" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="O24" t="s">
-        <v>316</v>
-      </c>
-      <c r="P24" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>275</v>
-      </c>
       <c r="S24" s="0" t="s">
         <v>116</v>
       </c>
@@ -2333,15 +1809,6 @@
       <c r="M25" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="O25" t="s">
-        <v>318</v>
-      </c>
-      <c r="P25" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>275</v>
-      </c>
       <c r="S25" s="0" t="s">
         <v>123</v>
       </c>
@@ -2377,15 +1844,6 @@
       <c r="M26" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="O26" t="s">
-        <v>320</v>
-      </c>
-      <c r="P26" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>275</v>
-      </c>
       <c r="S26" s="0" t="s">
         <v>128</v>
       </c>
@@ -2421,15 +1879,6 @@
       <c r="M27" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="O27" t="s">
-        <v>322</v>
-      </c>
-      <c r="P27" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>275</v>
-      </c>
       <c r="S27" s="0" t="s">
         <v>132</v>
       </c>
@@ -2465,15 +1914,6 @@
       <c r="M28" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="O28" t="s">
-        <v>324</v>
-      </c>
-      <c r="P28" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>275</v>
-      </c>
       <c r="S28" s="0" t="s">
         <v>136</v>
       </c>
@@ -2509,15 +1949,6 @@
       <c r="M29" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="O29" t="s">
-        <v>326</v>
-      </c>
-      <c r="P29" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>275</v>
-      </c>
       <c r="S29" s="0" t="s">
         <v>141</v>
       </c>
@@ -2553,15 +1984,6 @@
       <c r="M30" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="O30" t="s">
-        <v>328</v>
-      </c>
-      <c r="P30" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>275</v>
-      </c>
       <c r="S30" s="0" t="s">
         <v>146</v>
       </c>
@@ -2597,11 +2019,6 @@
       <c r="M31" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="O31" t="s">
-        <v>330</v>
-      </c>
-      <c r="P31"/>
-      <c r="Q31"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="16" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
@@ -2634,15 +2051,6 @@
       <c r="M32" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="O32" t="s">
-        <v>331</v>
-      </c>
-      <c r="P32" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>275</v>
-      </c>
       <c r="S32" s="0" t="s">
         <v>155</v>
       </c>
@@ -2678,15 +2086,6 @@
       <c r="M33" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="O33" t="s">
-        <v>333</v>
-      </c>
-      <c r="P33" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>275</v>
-      </c>
       <c r="S33" s="0" t="s">
         <v>159</v>
       </c>
@@ -2722,15 +2121,6 @@
       <c r="M34" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="O34" t="s">
-        <v>335</v>
-      </c>
-      <c r="P34" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>275</v>
-      </c>
       <c r="S34" s="0" t="s">
         <v>163</v>
       </c>
@@ -2766,15 +2156,6 @@
       <c r="M35" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="O35" t="s">
-        <v>337</v>
-      </c>
-      <c r="P35" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>275</v>
-      </c>
       <c r="S35" s="0" t="s">
         <v>168</v>
       </c>
@@ -2810,15 +2191,6 @@
       <c r="M36" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="O36" t="s">
-        <v>339</v>
-      </c>
-      <c r="P36" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>275</v>
-      </c>
       <c r="S36" s="0" t="s">
         <v>172</v>
       </c>
@@ -2854,15 +2226,6 @@
       <c r="M37" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="O37" t="s">
-        <v>341</v>
-      </c>
-      <c r="P37" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>275</v>
-      </c>
       <c r="S37" s="0" t="s">
         <v>177</v>
       </c>
@@ -2898,15 +2261,6 @@
       <c r="M38" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="O38" t="s">
-        <v>343</v>
-      </c>
-      <c r="P38" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>275</v>
-      </c>
       <c r="S38" s="0" t="s">
         <v>181</v>
       </c>
@@ -2942,15 +2296,6 @@
       <c r="M39" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="O39" t="s">
-        <v>345</v>
-      </c>
-      <c r="P39" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>275</v>
-      </c>
       <c r="S39" s="0" t="s">
         <v>186</v>
       </c>
@@ -2986,15 +2331,6 @@
       <c r="M40" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="O40" t="s">
-        <v>347</v>
-      </c>
-      <c r="P40" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>275</v>
-      </c>
       <c r="S40" s="0" t="s">
         <v>190</v>
       </c>
@@ -3030,15 +2366,6 @@
       <c r="M41" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O41" t="s">
-        <v>349</v>
-      </c>
-      <c r="P41" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>275</v>
-      </c>
       <c r="S41" s="0" t="s">
         <v>194</v>
       </c>
@@ -3074,15 +2401,6 @@
       <c r="M42" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="O42" t="s">
-        <v>350</v>
-      </c>
-      <c r="P42" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>275</v>
-      </c>
       <c r="S42" s="0" t="s">
         <v>197</v>
       </c>
@@ -3118,15 +2436,6 @@
       <c r="M43" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="O43" t="s">
-        <v>351</v>
-      </c>
-      <c r="P43" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>275</v>
-      </c>
       <c r="S43" s="0" t="s">
         <v>201</v>
       </c>
@@ -3197,15 +2506,6 @@
       <c r="M45" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="O45" t="s">
-        <v>353</v>
-      </c>
-      <c r="P45" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>275</v>
-      </c>
       <c r="S45" s="0" t="s">
         <v>211</v>
       </c>
@@ -3241,15 +2541,6 @@
       <c r="M46" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="O46" t="s">
-        <v>355</v>
-      </c>
-      <c r="P46" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>275</v>
-      </c>
       <c r="S46" s="0" t="s">
         <v>216</v>
       </c>
@@ -3285,15 +2576,6 @@
       <c r="M47" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="O47" t="s">
-        <v>357</v>
-      </c>
-      <c r="P47" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>275</v>
-      </c>
       <c r="S47" s="0" t="s">
         <v>220</v>
       </c>
@@ -3329,15 +2611,6 @@
       <c r="M48" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="O48" t="s">
-        <v>359</v>
-      </c>
-      <c r="P48" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>275</v>
-      </c>
       <c r="S48" s="0" t="s">
         <v>225</v>
       </c>
@@ -3443,15 +2716,6 @@
       <c r="M51" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="O51" t="s">
-        <v>361</v>
-      </c>
-      <c r="P51" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>275</v>
-      </c>
       <c r="S51" s="0" t="s">
         <v>240</v>
       </c>
@@ -3487,15 +2751,6 @@
       <c r="M52" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="O52" t="s">
-        <v>363</v>
-      </c>
-      <c r="P52" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>275</v>
-      </c>
       <c r="S52" s="0" t="s">
         <v>245</v>
       </c>
@@ -3531,15 +2786,6 @@
       <c r="M53" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="O53" t="s">
-        <v>365</v>
-      </c>
-      <c r="P53" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>275</v>
-      </c>
       <c r="S53" s="0" t="s">
         <v>250</v>
       </c>
@@ -3610,15 +2856,6 @@
       <c r="M55" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="O55" t="s">
-        <v>367</v>
-      </c>
-      <c r="P55" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>369</v>
-      </c>
       <c r="S55" s="0" t="s">
         <v>259</v>
       </c>
@@ -3654,15 +2891,6 @@
       <c r="M56" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="O56" t="s">
-        <v>370</v>
-      </c>
-      <c r="P56" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>275</v>
-      </c>
       <c r="S56" s="0" t="s">
         <v>263</v>
       </c>
@@ -3697,15 +2925,6 @@
       </c>
       <c r="M57" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="O57" t="s">
-        <v>372</v>
-      </c>
-      <c r="P57" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>275</v>
       </c>
       <c r="S57" s="0" t="s">
         <v>268</v>
